--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Alphabet size 3, state size of 50</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>ARO</t>
+  </si>
+  <si>
+    <t>MaRz</t>
   </si>
 </sst>
 </file>
@@ -119,8 +122,3036 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaRz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$ALM$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>69.120999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.058999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.935000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.598999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.375999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.206000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.506999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.186999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.281999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.643000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.564999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.741999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.572000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.183999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.283000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.134999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.985999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50.362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50.533999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43.601999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44.715000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45.834000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44.875999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45.176000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45.006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46.442999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.029000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48.311</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46.313000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48.904000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.442</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42.621000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45.945999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47.209000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44.003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45.393999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43.143999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46.993000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45.167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.517000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48.99</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44.887999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45.598999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44.956000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46.207999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45.237000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44.973999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44.445</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.920999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46.366</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48.055</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44.78</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49.777999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>48.685000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42.683</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>48.427999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49.484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44.002000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44.39</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45.597000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41.73</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44.341999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.514000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>46.594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>46.036000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48.628999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>47.841000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>39.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42.826999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46.188000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40.999000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43.247</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42.325000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44.621000000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42.66</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42.402000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>46.569000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.969000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>38.744999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45.206000000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>50.134999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41.83</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44.027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41.363</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43.645000000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40.012999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41.78</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>50.164000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>46.991999999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44.499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44.255000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48.927</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>47.569000000000003</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43.792000000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43.951999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45.317</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>47.069000000000003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41.143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43.567999999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44.067999999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>46.591000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>47.112000000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>39.677999999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43.246000000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42.048999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>47.283999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41.265999999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45.171999999999997</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>40.612000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43.642000000000003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>42.26</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>45.74</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>45.316000000000003</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>46.805</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>48.061999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>42.198</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41.703000000000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>45.795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>48.325000000000003</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44.905000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>42.195999999999998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>45.322000000000003</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42.933</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>46.338000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41.276000000000003</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42.174999999999997</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43.487000000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43.491</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>39.749000000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42.723999999999997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41.472000000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>40.573</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>38.168999999999997</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44.158999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44.41</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43.337000000000003</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>41.470999999999997</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>48.42</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>36.832999999999998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>46.194000000000003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>38.802</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>38.652000000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44.143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>41.085000000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>40.390999999999998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>43.357999999999997</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>39.152999999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>41.377000000000002</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>39.048000000000002</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>40.890999999999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>38.863</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>38.497</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42.591999999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>38.037999999999997</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>36.901000000000003</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>38.15</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>38.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>42.707000000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>42.158000000000001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>39.19</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>38.131999999999998</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44.457999999999998</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>40.689</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>39.018000000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>42.031999999999996</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>36.095999999999997</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>38.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>35.536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>42.731000000000002</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>40.814</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>39.042999999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>38.256</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>34.817</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>38.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43.206000000000003</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>37.914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>37.192999999999998</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>40.360999999999997</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>38.645000000000003</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43.872</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44.284999999999997</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>39.389000000000003</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43.372999999999998</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>45.146999999999998</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>41.439</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>41.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>39.936999999999998</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>46.274999999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>40.594000000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>36.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>38.155999999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>42.088999999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>34.581000000000003</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>37.262999999999998</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>41.622</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>41.276000000000003</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>40.061999999999998</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>41.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43.427999999999997</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>41.262999999999998</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>35.92</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>36.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>37.603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>35.279000000000003</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>37.502000000000002</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>35.326000000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>39.607999999999997</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>38.753999999999998</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>37.814</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>36.329000000000001</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>36.377000000000002</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>33.686999999999998</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>37.911999999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>40.628999999999998</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>40.573</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>37.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>37.890999999999998</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>36.366</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>32.244</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>38.600999999999999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>38.923000000000002</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>36.168999999999997</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>39.043999999999997</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>37.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>38.764000000000003</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>37.633000000000003</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>38.448999999999998</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>39.165999999999997</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>34.713000000000001</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>37.374000000000002</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>36.261000000000003</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>35.487000000000002</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>41.643999999999998</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>41.183999999999997</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>40.039000000000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>41.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>38.709000000000003</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>39.470999999999997</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>39.634</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>41.801000000000002</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>41.057000000000002</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>40.695</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>36.843000000000004</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>33.93</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>37.427999999999997</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>42.31</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>40.375</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>37.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>41.018999999999998</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>35.866</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>38.872</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>36.250999999999998</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>41.34</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>40.356999999999999</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>38.985999999999997</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>41.661000000000001</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>39.323999999999998</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>35.085000000000001</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>43.338000000000001</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>40.311999999999998</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>43.393999999999998</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>36.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>38.981999999999999</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>40.439</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>42.353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>40.634</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>40.151000000000003</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>38.390999999999998</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>39.741</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>33.808999999999997</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>37.997</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>37.71</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>38.378999999999998</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>39.889000000000003</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>39.585000000000001</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>37.57</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>42.040999999999997</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>41.44</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>40.594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>37.21</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>39.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>39.497</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>39.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>40.009</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>38.518999999999998</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>41.459000000000003</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>38.43</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>39.71</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>40.81</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44.165999999999997</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>41.610999999999997</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>36.365000000000002</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>41.204000000000001</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>35.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>38.460999999999999</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>42.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>39.161000000000001</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>37.298000000000002</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>42.57</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>37.74</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>41.796999999999997</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>39.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>41.484000000000002</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>39.161999999999999</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>41.841999999999999</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>41.06</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>45.070999999999998</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>40.884999999999998</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>38.692999999999998</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>38.106999999999999</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>36.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>39.207000000000001</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>38.741999999999997</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>41.04</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>41.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44.247</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>41.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>40.697000000000003</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>38.552</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>41.706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>41.079000000000001</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>45.752000000000002</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>43.143999999999998</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>37.901000000000003</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>38.694000000000003</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>37.338000000000001</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>36.613999999999997</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>42.006999999999998</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>34.945999999999998</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>37.683999999999997</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44.042000000000002</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>39.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>38.601999999999997</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>35.481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>36.168999999999997</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>39.54</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>40.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>38.116999999999997</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>38.859000000000002</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>40.816000000000003</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>34.517000000000003</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>42.820999999999998</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>40.607999999999997</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>38.283000000000001</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>35.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>36.866</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>41.387999999999998</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>41.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>38.216999999999999</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>38.078000000000003</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>36.259</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>40.28</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>38.802999999999997</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>38.597000000000001</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>35.866999999999997</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>38.283000000000001</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>43.323999999999998</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>34.984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>34.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>38.112000000000002</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>35.296999999999997</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>37.436</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>35.405000000000001</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>39.793999999999997</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>41.552999999999997</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>39.426000000000002</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>40.317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>39.274000000000001</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>42.212000000000003</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>39.511000000000003</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>40.540999999999997</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>39.091000000000001</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>37.780999999999999</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>39.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>38.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>42.384999999999998</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>40.146999999999998</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>43.371000000000002</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>46.661999999999999</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>40.451000000000001</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>37.457000000000001</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>37.902999999999999</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>37.283999999999999</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>38.143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>37.31</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>39.738</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>40.546999999999997</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>37.290999999999997</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>37.268999999999998</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>42.991999999999997</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>40.201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>38.503999999999998</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>39.323999999999998</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>41.616</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>39.762</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>37.662999999999997</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>38.939</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>34.963000000000001</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>39.723999999999997</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>36.920999999999999</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>36.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>36.058</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>37.203000000000003</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>37.646999999999998</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>38.779000000000003</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>37.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>36.567999999999998</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>39.908000000000001</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>36.506</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>36.180999999999997</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>37.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>36.56</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>34.741</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>36.484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>37.252000000000002</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>37.835999999999999</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>35.853000000000002</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>36.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>40.64</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>41.968000000000004</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>36.563000000000002</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>39.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>44.459000000000003</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>41.085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>38.750999999999998</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>34.04</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>39.011000000000003</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>37.508000000000003</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>43.095999999999997</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>39.225999999999999</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>40.252000000000002</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>39.546999999999997</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>36.798000000000002</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>40.094000000000001</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>31.687000000000001</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>40.817</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>40.631999999999998</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>36.494999999999997</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>35.661000000000001</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>41.573</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>34.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>40.302</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>39.262</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>37.792000000000002</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>41.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>36.418999999999997</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>35.901000000000003</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>34.658000000000001</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>40.889000000000003</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>38.718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>38.238999999999997</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>37.814999999999998</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>44.018999999999998</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>40.133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>37.369</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>42.478999999999999</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>34.176000000000002</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>38.597999999999999</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>36.908000000000001</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>40.323</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>38.911000000000001</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>38.552</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>36.031999999999996</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>40.177</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>37.451000000000001</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>40.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>35.610999999999997</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>39.287999999999997</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>39.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>38.151000000000003</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>41.259</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>37.512999999999998</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>36.750999999999998</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>42.750999999999998</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>38.793999999999997</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>43.898000000000003</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>35.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>38.292000000000002</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>39.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>34.345999999999997</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>35.290999999999997</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>38.561</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>40.664000000000001</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>35.871000000000002</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>41.058999999999997</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>34.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>38.555999999999997</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>37.082000000000001</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>37.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>38.404000000000003</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>33.381</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>33.231000000000002</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>35.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>40.637</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>35.451999999999998</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>37.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>37.192999999999998</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>36.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>37.206000000000003</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>40.179000000000002</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>38.625999999999998</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>36.905000000000001</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>36.606000000000002</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>32.981000000000002</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>36.177999999999997</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>38.933</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>34.124000000000002</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>35.731000000000002</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>36.036000000000001</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>35.784999999999997</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>33.287999999999997</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>40.441000000000003</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>35.043999999999997</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>37.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>37.436</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>32.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>38.530999999999999</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>36.381999999999998</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>39.414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>40.756</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>36.284999999999997</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>37.375999999999998</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>35.465000000000003</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>35.414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>35.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>35.337000000000003</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>38.948</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>41.817</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>36.460999999999999</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>35.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>32.988999999999997</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>37.534999999999997</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>36.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>34.271000000000001</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>39.563000000000002</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>36.459000000000003</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>39.953000000000003</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>36.204999999999998</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>37.902999999999999</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>37.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>39.808999999999997</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>35.436999999999998</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>40.158999999999999</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>39.412999999999997</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>39.813000000000002</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>39.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>37.948</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>35.139000000000003</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>35.295999999999999</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>42.326999999999998</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>38.848999999999997</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>36.143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>35.790999999999997</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>36.226999999999997</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>36.874000000000002</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>35.478000000000002</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>41.165999999999997</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>35.94</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>40.404000000000003</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>36.341000000000001</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>36.149000000000001</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>33.735999999999997</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>36.356999999999999</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>36.884</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>38.39</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>36.808999999999997</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>38.186999999999998</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>39.86</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>33.381</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>37.795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>34.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>39.036999999999999</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>36.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>31.238</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>38.613</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>35.383000000000003</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>28.673999999999999</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>36.244</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>35.805</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>38.238</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>40.384</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>40.423000000000002</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>37.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>31.068000000000001</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>33.256999999999998</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>36.896000000000001</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>34.311</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>34.747999999999998</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>30.887</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>39.027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>36.258000000000003</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>37.997</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>38.145000000000003</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>35.195999999999998</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>33.31</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>35.156999999999996</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>37.826000000000001</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>40.215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>38.78</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>36.601999999999997</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>38.283999999999999</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>37.057000000000002</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>38.122999999999998</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>38.555</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>37.81</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>36.545999999999999</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>36.264000000000003</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>36.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>38.152999999999999</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>38.811999999999998</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>34.798000000000002</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>35.271999999999998</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>35.569000000000003</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>37.692</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>41.500999999999998</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>35.186999999999998</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>36.212000000000003</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>37.661000000000001</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>36.362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>40.000999999999998</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>36.792000000000002</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>37.185000000000002</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>35.396999999999998</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>39.459000000000003</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>36.713000000000001</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>35.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>34.738</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>36.811</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>26.847000000000001</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>35.741999999999997</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>33.347000000000001</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>36.573999999999998</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>32.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>37.588000000000001</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>37.119</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>32.329000000000001</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>36.220999999999997</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>36.640999999999998</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>32.728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>34.051000000000002</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>34.121000000000002</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>33.127000000000002</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>33.313000000000002</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>34.515999999999998</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>35.648000000000003</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>35.292999999999999</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>35.993000000000002</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>34.826999999999998</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>34.622</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>35.845999999999997</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>31.102</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>34.936999999999998</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>32.43</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>32.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>32.661000000000001</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>33.317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>28.22</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>36.396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>34.012999999999998</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>35.981000000000002</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>34.612000000000002</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>40.305</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>36.345999999999997</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>37.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>39.32</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>33.89</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>40.832999999999998</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>36.895000000000003</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>37.649000000000001</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>34.280999999999999</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>37.795000000000002</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>37.926000000000002</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>33.320999999999998</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>34.677</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>38.219000000000001</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>35.941000000000003</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>32.133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>35.585000000000001</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>33.819000000000003</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>33.79</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>31.927</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>36.067999999999998</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>35.53</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>35.545999999999999</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>37.341999999999999</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>33.591000000000001</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>34.686999999999998</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>31.638999999999999</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>35.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>33.972000000000001</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>33.31</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>38.494999999999997</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>36.591000000000001</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>38.133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>35.936</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>32.317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>34.892000000000003</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>36.697000000000003</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>36.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>31.513999999999999</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>33.171999999999997</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>36.057000000000002</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>38.027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>32.887</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>30.917000000000002</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>35.118000000000002</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>35.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>37.847999999999999</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>35.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>38.619</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>35.366999999999997</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>35.926000000000002</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>39.686</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>37.911999999999999</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>34.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>38.470999999999997</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>35.091999999999999</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>35.024999999999999</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>34.100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>38.277000000000001</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>38.335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>35.564</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>34.539000000000001</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>38.298000000000002</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>36.857999999999997</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>32.993000000000002</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>38.468000000000004</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>34.499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>33.384</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>39.947000000000003</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>35.506</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>38.222000000000001</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>36.204999999999998</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>37.017000000000003</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>39.944000000000003</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>40.29</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>36.32</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>35.972999999999999</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>31.838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>39.097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>34.472000000000001</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>37.057000000000002</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>36.351999999999997</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>37.905999999999999</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>36.847000000000001</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>36.707999999999998</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>37.860999999999997</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>32.651000000000003</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>40.156999999999996</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>35.738999999999997</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>37.631</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>32.478999999999999</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>35.941000000000003</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>37.905000000000001</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>34.039000000000001</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>37.192</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>35.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>37.462000000000003</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>35.183</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>34.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>36.055</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>37.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>37.938000000000002</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>33.506999999999998</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>36.655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>33.923999999999999</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>36.396999999999998</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>33.926000000000002</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>35.918999999999997</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>35.018000000000001</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>34.551000000000002</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>28.378</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>38.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>31.794</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>36.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>33.281999999999996</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>33.97</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>35.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>33.851999999999997</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>31.960999999999999</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>38.756999999999998</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>36.658999999999999</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>36.17</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>37.33</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>39.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>38.353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>36.987000000000002</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>32.232999999999997</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>40.04</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>38.389000000000003</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>37.938000000000002</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>38.999000000000002</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>38.956000000000003</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>41.082000000000001</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>35.051000000000002</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>35.948999999999998</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>34.738</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>37.414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>34.822000000000003</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>37.369</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>39.06</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>34.231000000000002</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>35.906999999999996</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>34.921999999999997</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>38.444000000000003</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>39.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>33.51</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>38.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>35.890999999999998</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>34.997</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>36.656999999999996</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>36.32</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>39.006999999999998</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>35.338000000000001</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>36.969000000000001</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>34.551000000000002</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>33.767000000000003</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>36.176000000000002</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>37.813000000000002</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>40.737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>35.369</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>34.356999999999999</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>40.527999999999999</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>37.398000000000003</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>36.831000000000003</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>35.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>37.116</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>37.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>36.948</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>38.890999999999998</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>37.122999999999998</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>37.25</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>40.856000000000002</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>37.534999999999997</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>37.805999999999997</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>38.795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>39.484000000000002</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>40.493000000000002</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>37.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>39.331000000000003</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>38.414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>43.774000000000001</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>35.533999999999999</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>40.31</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>39.453000000000003</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>42.551000000000002</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>36.793999999999997</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>37.209000000000003</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>38.982999999999997</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>38.473999999999997</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>34.325000000000003</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>37.225000000000001</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>36.862000000000002</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>33.887</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>33.963999999999999</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>35.752000000000002</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>36.162999999999997</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>39.448</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>39.570999999999998</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>34.826000000000001</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>39.875999999999998</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>40.484000000000002</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>35.353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>41.253999999999998</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>38.195</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>34.353000000000002</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>36.195</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>36.606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>37.764000000000003</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>35.441000000000003</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>38.451000000000001</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>34.286999999999999</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>29.367999999999999</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>36.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>37.517000000000003</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>37.76</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>35.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>35.368000000000002</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>34.904000000000003</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>36.363</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>35.468000000000004</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>32.122</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>30.605</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>35.404000000000003</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>34.576000000000001</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>36.527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>36.012999999999998</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>38.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>36.088000000000001</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>31.949000000000002</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>35.393000000000001</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>30.879000000000001</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>31.734999999999999</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>32.862000000000002</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>35.222999999999999</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>34.420999999999999</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>38.366</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>35.988999999999997</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>33.838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>34.045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>35.466999999999999</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>33.28</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>34.44</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>35.619</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>32.348999999999997</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>37.052</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>40.348999999999997</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>33.094999999999999</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>35.523000000000003</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>33.808999999999997</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>34.119</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>36.761000000000003</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>32.886000000000003</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>34.965000000000003</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>38.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>36.912999999999997</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>36.201999999999998</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>37.043999999999997</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>35.021999999999998</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>33.500999999999998</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>37.829000000000001</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>37.445</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>37.137999999999998</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>38.311</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>33.987000000000002</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>34.287999999999997</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>37.747999999999998</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>36.152999999999999</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>37.756999999999998</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>33.56</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>36.045999999999999</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>32.935000000000002</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>35.752000000000002</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>35.875</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>39.643000000000001</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>35.58</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>36.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>35.817</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>34.674999999999997</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>36.988</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>35.988</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>34.384</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>35.576000000000001</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>34.021999999999998</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>33.215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>38.372</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>35.384999999999998</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>38.58</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>35.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>34.558999999999997</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>34.988999999999997</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>34.192999999999998</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>32.35</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>35.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>37.162999999999997</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>34.029000000000003</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>35.058999999999997</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>36.307000000000002</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>35.853000000000002</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>33.350999999999999</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>36.154000000000003</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>41.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>36.055</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>39.854999999999997</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>38.322000000000003</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>42.773000000000003</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>37.723999999999997</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>39.067</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>39.003999999999998</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>36.567999999999998</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>39.652999999999999</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>32.195</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>37.143999999999998</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>36.286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>34.627000000000002</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>38.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>41.228000000000002</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>35.259</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>34.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>37.459000000000003</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>37.741999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$3</c:f>
@@ -3148,7 +6179,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$4</c:f>
@@ -6184,11 +9215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128423808"/>
-        <c:axId val="128425344"/>
+        <c:axId val="145064704"/>
+        <c:axId val="145066624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128423808"/>
+        <c:axId val="145064704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6204,7 +9235,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1050"/>
                   <a:t>Successive Goals</a:t>
                 </a:r>
               </a:p>
@@ -6216,7 +9247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128425344"/>
+        <c:crossAx val="145066624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6224,7 +9255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128425344"/>
+        <c:axId val="145066624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6241,7 +9272,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1050"/>
                   <a:t>Number of Steps</a:t>
                 </a:r>
               </a:p>
@@ -6254,7 +9285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128423808"/>
+        <c:crossAx val="145064704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12386,11 +15417,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185428608"/>
-        <c:axId val="185446784"/>
+        <c:axId val="145113088"/>
+        <c:axId val="145115008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185428608"/>
+        <c:axId val="145113088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12406,7 +15437,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1050"/>
                   <a:t>Successive Goals</a:t>
                 </a:r>
               </a:p>
@@ -12418,7 +15449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185446784"/>
+        <c:crossAx val="145115008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12426,7 +15457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185446784"/>
+        <c:axId val="145115008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12443,7 +15474,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1050"/>
                   <a:t>Number of Steps</a:t>
                 </a:r>
               </a:p>
@@ -12456,7 +15487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185428608"/>
+        <c:crossAx val="145113088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12483,15 +15514,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>384981</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>67140</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>569516</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>81909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12513,15 +15544,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>321468</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>382492</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>154780</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>172871</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12832,8 +15863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18856,6 +21887,3011 @@
       </c>
       <c r="ALM4">
         <v>16.370999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1001" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>69.120999999999995</v>
+      </c>
+      <c r="C5">
+        <v>65.058999999999997</v>
+      </c>
+      <c r="D5">
+        <v>63.997</v>
+      </c>
+      <c r="E5">
+        <v>61.935000000000002</v>
+      </c>
+      <c r="F5">
+        <v>53.598999999999997</v>
+      </c>
+      <c r="G5">
+        <v>61.375999999999998</v>
+      </c>
+      <c r="H5">
+        <v>61.206000000000003</v>
+      </c>
+      <c r="I5">
+        <v>53.506999999999998</v>
+      </c>
+      <c r="J5">
+        <v>50.186999999999998</v>
+      </c>
+      <c r="K5">
+        <v>51.83</v>
+      </c>
+      <c r="L5">
+        <v>55.281999999999996</v>
+      </c>
+      <c r="M5">
+        <v>54.643000000000001</v>
+      </c>
+      <c r="N5">
+        <v>51.564999999999998</v>
+      </c>
+      <c r="O5">
+        <v>49.741999999999997</v>
+      </c>
+      <c r="P5">
+        <v>51.572000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>49.606999999999999</v>
+      </c>
+      <c r="R5">
+        <v>44.183999999999997</v>
+      </c>
+      <c r="S5">
+        <v>46.283000000000001</v>
+      </c>
+      <c r="T5">
+        <v>47.134999999999998</v>
+      </c>
+      <c r="U5">
+        <v>49.985999999999997</v>
+      </c>
+      <c r="V5">
+        <v>50.362000000000002</v>
+      </c>
+      <c r="W5">
+        <v>50.533999999999999</v>
+      </c>
+      <c r="X5">
+        <v>43.601999999999997</v>
+      </c>
+      <c r="Y5">
+        <v>44.715000000000003</v>
+      </c>
+      <c r="Z5">
+        <v>45.834000000000003</v>
+      </c>
+      <c r="AA5">
+        <v>44.875999999999998</v>
+      </c>
+      <c r="AB5">
+        <v>45.176000000000002</v>
+      </c>
+      <c r="AC5">
+        <v>45.006</v>
+      </c>
+      <c r="AD5">
+        <v>46.442999999999998</v>
+      </c>
+      <c r="AE5">
+        <v>45.029000000000003</v>
+      </c>
+      <c r="AF5">
+        <v>48.311</v>
+      </c>
+      <c r="AG5">
+        <v>46.313000000000002</v>
+      </c>
+      <c r="AH5">
+        <v>48.904000000000003</v>
+      </c>
+      <c r="AI5">
+        <v>48.442</v>
+      </c>
+      <c r="AJ5">
+        <v>42.621000000000002</v>
+      </c>
+      <c r="AK5">
+        <v>45.945999999999998</v>
+      </c>
+      <c r="AL5">
+        <v>47.209000000000003</v>
+      </c>
+      <c r="AM5">
+        <v>44.003</v>
+      </c>
+      <c r="AN5">
+        <v>45.393999999999998</v>
+      </c>
+      <c r="AO5">
+        <v>43.143999999999998</v>
+      </c>
+      <c r="AP5">
+        <v>46.993000000000002</v>
+      </c>
+      <c r="AQ5">
+        <v>45.167999999999999</v>
+      </c>
+      <c r="AR5">
+        <v>43.517000000000003</v>
+      </c>
+      <c r="AS5">
+        <v>48.99</v>
+      </c>
+      <c r="AT5">
+        <v>44.887999999999998</v>
+      </c>
+      <c r="AU5">
+        <v>47.679000000000002</v>
+      </c>
+      <c r="AV5">
+        <v>45.598999999999997</v>
+      </c>
+      <c r="AW5">
+        <v>44.956000000000003</v>
+      </c>
+      <c r="AX5">
+        <v>46.207999999999998</v>
+      </c>
+      <c r="AY5">
+        <v>45.237000000000002</v>
+      </c>
+      <c r="AZ5">
+        <v>44.973999999999997</v>
+      </c>
+      <c r="BA5">
+        <v>44.445</v>
+      </c>
+      <c r="BB5">
+        <v>55.920999999999999</v>
+      </c>
+      <c r="BC5">
+        <v>46.366</v>
+      </c>
+      <c r="BD5">
+        <v>48.055</v>
+      </c>
+      <c r="BE5">
+        <v>44.579000000000001</v>
+      </c>
+      <c r="BF5">
+        <v>44.78</v>
+      </c>
+      <c r="BG5">
+        <v>49.777999999999999</v>
+      </c>
+      <c r="BH5">
+        <v>48.685000000000002</v>
+      </c>
+      <c r="BI5">
+        <v>42.683</v>
+      </c>
+      <c r="BJ5">
+        <v>48.427999999999997</v>
+      </c>
+      <c r="BK5">
+        <v>49.484999999999999</v>
+      </c>
+      <c r="BL5">
+        <v>44.002000000000002</v>
+      </c>
+      <c r="BM5">
+        <v>44.39</v>
+      </c>
+      <c r="BN5">
+        <v>45.597000000000001</v>
+      </c>
+      <c r="BO5">
+        <v>41.73</v>
+      </c>
+      <c r="BP5">
+        <v>44.341999999999999</v>
+      </c>
+      <c r="BQ5">
+        <v>46.514000000000003</v>
+      </c>
+      <c r="BR5">
+        <v>46.594999999999999</v>
+      </c>
+      <c r="BS5">
+        <v>46.036000000000001</v>
+      </c>
+      <c r="BT5">
+        <v>48.628999999999998</v>
+      </c>
+      <c r="BU5">
+        <v>47.841000000000001</v>
+      </c>
+      <c r="BV5">
+        <v>39.332000000000001</v>
+      </c>
+      <c r="BW5">
+        <v>42.826999999999998</v>
+      </c>
+      <c r="BX5">
+        <v>46.188000000000002</v>
+      </c>
+      <c r="BY5">
+        <v>40.999000000000002</v>
+      </c>
+      <c r="BZ5">
+        <v>43.247</v>
+      </c>
+      <c r="CA5">
+        <v>42.325000000000003</v>
+      </c>
+      <c r="CB5">
+        <v>44.621000000000002</v>
+      </c>
+      <c r="CC5">
+        <v>42.66</v>
+      </c>
+      <c r="CD5">
+        <v>42.402000000000001</v>
+      </c>
+      <c r="CE5">
+        <v>46.569000000000003</v>
+      </c>
+      <c r="CF5">
+        <v>42.969000000000001</v>
+      </c>
+      <c r="CG5">
+        <v>38.744999999999997</v>
+      </c>
+      <c r="CH5">
+        <v>45.206000000000003</v>
+      </c>
+      <c r="CI5">
+        <v>50.134999999999998</v>
+      </c>
+      <c r="CJ5">
+        <v>41.83</v>
+      </c>
+      <c r="CK5">
+        <v>44.027000000000001</v>
+      </c>
+      <c r="CL5">
+        <v>41.363</v>
+      </c>
+      <c r="CM5">
+        <v>43.645000000000003</v>
+      </c>
+      <c r="CN5">
+        <v>40.924999999999997</v>
+      </c>
+      <c r="CO5">
+        <v>40.012999999999998</v>
+      </c>
+      <c r="CP5">
+        <v>41.78</v>
+      </c>
+      <c r="CQ5">
+        <v>50.164000000000001</v>
+      </c>
+      <c r="CR5">
+        <v>46.991999999999997</v>
+      </c>
+      <c r="CS5">
+        <v>44.499000000000002</v>
+      </c>
+      <c r="CT5">
+        <v>44.255000000000003</v>
+      </c>
+      <c r="CU5">
+        <v>48.927</v>
+      </c>
+      <c r="CV5">
+        <v>42.103999999999999</v>
+      </c>
+      <c r="CW5">
+        <v>47.569000000000003</v>
+      </c>
+      <c r="CX5">
+        <v>43.792000000000002</v>
+      </c>
+      <c r="CY5">
+        <v>43.951999999999998</v>
+      </c>
+      <c r="CZ5">
+        <v>45.317</v>
+      </c>
+      <c r="DA5">
+        <v>47.069000000000003</v>
+      </c>
+      <c r="DB5">
+        <v>41.143000000000001</v>
+      </c>
+      <c r="DC5">
+        <v>43.567999999999998</v>
+      </c>
+      <c r="DD5">
+        <v>44.067999999999998</v>
+      </c>
+      <c r="DE5">
+        <v>46.591000000000001</v>
+      </c>
+      <c r="DF5">
+        <v>47.112000000000002</v>
+      </c>
+      <c r="DG5">
+        <v>39.677999999999997</v>
+      </c>
+      <c r="DH5">
+        <v>43.246000000000002</v>
+      </c>
+      <c r="DI5">
+        <v>45.4</v>
+      </c>
+      <c r="DJ5">
+        <v>42.048999999999999</v>
+      </c>
+      <c r="DK5">
+        <v>47.283999999999999</v>
+      </c>
+      <c r="DL5">
+        <v>41.265999999999998</v>
+      </c>
+      <c r="DM5">
+        <v>45.171999999999997</v>
+      </c>
+      <c r="DN5">
+        <v>40.612000000000002</v>
+      </c>
+      <c r="DO5">
+        <v>44.984000000000002</v>
+      </c>
+      <c r="DP5">
+        <v>43.642000000000003</v>
+      </c>
+      <c r="DQ5">
+        <v>42.26</v>
+      </c>
+      <c r="DR5">
+        <v>45.74</v>
+      </c>
+      <c r="DS5">
+        <v>45.316000000000003</v>
+      </c>
+      <c r="DT5">
+        <v>46.805</v>
+      </c>
+      <c r="DU5">
+        <v>48.061999999999998</v>
+      </c>
+      <c r="DV5">
+        <v>42.198</v>
+      </c>
+      <c r="DW5">
+        <v>41.703000000000003</v>
+      </c>
+      <c r="DX5">
+        <v>45.795999999999999</v>
+      </c>
+      <c r="DY5">
+        <v>48.325000000000003</v>
+      </c>
+      <c r="DZ5">
+        <v>44.905000000000001</v>
+      </c>
+      <c r="EA5">
+        <v>42.195999999999998</v>
+      </c>
+      <c r="EB5">
+        <v>45.322000000000003</v>
+      </c>
+      <c r="EC5">
+        <v>42.933</v>
+      </c>
+      <c r="ED5">
+        <v>46.338000000000001</v>
+      </c>
+      <c r="EE5">
+        <v>41.276000000000003</v>
+      </c>
+      <c r="EF5">
+        <v>42.174999999999997</v>
+      </c>
+      <c r="EG5">
+        <v>43.487000000000002</v>
+      </c>
+      <c r="EH5">
+        <v>43.491</v>
+      </c>
+      <c r="EI5">
+        <v>39.749000000000002</v>
+      </c>
+      <c r="EJ5">
+        <v>42.723999999999997</v>
+      </c>
+      <c r="EK5">
+        <v>41.472000000000001</v>
+      </c>
+      <c r="EL5">
+        <v>40.573</v>
+      </c>
+      <c r="EM5">
+        <v>38.168999999999997</v>
+      </c>
+      <c r="EN5">
+        <v>41.774999999999999</v>
+      </c>
+      <c r="EO5">
+        <v>44.158999999999999</v>
+      </c>
+      <c r="EP5">
+        <v>44.41</v>
+      </c>
+      <c r="EQ5">
+        <v>43.337000000000003</v>
+      </c>
+      <c r="ER5">
+        <v>41.470999999999997</v>
+      </c>
+      <c r="ES5">
+        <v>48.42</v>
+      </c>
+      <c r="ET5">
+        <v>36.832999999999998</v>
+      </c>
+      <c r="EU5">
+        <v>46.194000000000003</v>
+      </c>
+      <c r="EV5">
+        <v>38.802</v>
+      </c>
+      <c r="EW5">
+        <v>38.652000000000001</v>
+      </c>
+      <c r="EX5">
+        <v>44.143000000000001</v>
+      </c>
+      <c r="EY5">
+        <v>41.085000000000001</v>
+      </c>
+      <c r="EZ5">
+        <v>40.390999999999998</v>
+      </c>
+      <c r="FA5">
+        <v>43.357999999999997</v>
+      </c>
+      <c r="FB5">
+        <v>39.152999999999999</v>
+      </c>
+      <c r="FC5">
+        <v>41.377000000000002</v>
+      </c>
+      <c r="FD5">
+        <v>39.048000000000002</v>
+      </c>
+      <c r="FE5">
+        <v>40.890999999999998</v>
+      </c>
+      <c r="FF5">
+        <v>38.863</v>
+      </c>
+      <c r="FG5">
+        <v>38.497</v>
+      </c>
+      <c r="FH5">
+        <v>42.591999999999999</v>
+      </c>
+      <c r="FI5">
+        <v>38.037999999999997</v>
+      </c>
+      <c r="FJ5">
+        <v>36.901000000000003</v>
+      </c>
+      <c r="FK5">
+        <v>38.15</v>
+      </c>
+      <c r="FL5">
+        <v>38.411999999999999</v>
+      </c>
+      <c r="FM5">
+        <v>42.707000000000001</v>
+      </c>
+      <c r="FN5">
+        <v>42.158000000000001</v>
+      </c>
+      <c r="FO5">
+        <v>39.19</v>
+      </c>
+      <c r="FP5">
+        <v>38.131999999999998</v>
+      </c>
+      <c r="FQ5">
+        <v>44.457999999999998</v>
+      </c>
+      <c r="FR5">
+        <v>40.689</v>
+      </c>
+      <c r="FS5">
+        <v>39.018000000000001</v>
+      </c>
+      <c r="FT5">
+        <v>42.031999999999996</v>
+      </c>
+      <c r="FU5">
+        <v>36.095999999999997</v>
+      </c>
+      <c r="FV5">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="FW5">
+        <v>35.536000000000001</v>
+      </c>
+      <c r="FX5">
+        <v>42.731000000000002</v>
+      </c>
+      <c r="FY5">
+        <v>40.814</v>
+      </c>
+      <c r="FZ5">
+        <v>39.042999999999999</v>
+      </c>
+      <c r="GA5">
+        <v>38.256</v>
+      </c>
+      <c r="GB5">
+        <v>34.817</v>
+      </c>
+      <c r="GC5">
+        <v>38.314999999999998</v>
+      </c>
+      <c r="GD5">
+        <v>43.206000000000003</v>
+      </c>
+      <c r="GE5">
+        <v>37.914999999999999</v>
+      </c>
+      <c r="GF5">
+        <v>37.192999999999998</v>
+      </c>
+      <c r="GG5">
+        <v>40.360999999999997</v>
+      </c>
+      <c r="GH5">
+        <v>38.645000000000003</v>
+      </c>
+      <c r="GI5">
+        <v>43.872</v>
+      </c>
+      <c r="GJ5">
+        <v>44.284999999999997</v>
+      </c>
+      <c r="GK5">
+        <v>39.389000000000003</v>
+      </c>
+      <c r="GL5">
+        <v>43.372999999999998</v>
+      </c>
+      <c r="GM5">
+        <v>45.146999999999998</v>
+      </c>
+      <c r="GN5">
+        <v>41.439</v>
+      </c>
+      <c r="GO5">
+        <v>41.524000000000001</v>
+      </c>
+      <c r="GP5">
+        <v>39.936999999999998</v>
+      </c>
+      <c r="GQ5">
+        <v>46.274999999999999</v>
+      </c>
+      <c r="GR5">
+        <v>40.594000000000001</v>
+      </c>
+      <c r="GS5">
+        <v>36.295000000000002</v>
+      </c>
+      <c r="GT5">
+        <v>38.155999999999999</v>
+      </c>
+      <c r="GU5">
+        <v>42.088999999999999</v>
+      </c>
+      <c r="GV5">
+        <v>34.581000000000003</v>
+      </c>
+      <c r="GW5">
+        <v>37.262999999999998</v>
+      </c>
+      <c r="GX5">
+        <v>41.622</v>
+      </c>
+      <c r="GY5">
+        <v>41.276000000000003</v>
+      </c>
+      <c r="GZ5">
+        <v>40.061999999999998</v>
+      </c>
+      <c r="HA5">
+        <v>41.363999999999997</v>
+      </c>
+      <c r="HB5">
+        <v>43.427999999999997</v>
+      </c>
+      <c r="HC5">
+        <v>41.262999999999998</v>
+      </c>
+      <c r="HD5">
+        <v>35.92</v>
+      </c>
+      <c r="HE5">
+        <v>36.966999999999999</v>
+      </c>
+      <c r="HF5">
+        <v>37.603000000000002</v>
+      </c>
+      <c r="HG5">
+        <v>35.279000000000003</v>
+      </c>
+      <c r="HH5">
+        <v>37.502000000000002</v>
+      </c>
+      <c r="HI5">
+        <v>35.326000000000001</v>
+      </c>
+      <c r="HJ5">
+        <v>39.607999999999997</v>
+      </c>
+      <c r="HK5">
+        <v>38.753999999999998</v>
+      </c>
+      <c r="HL5">
+        <v>37.814</v>
+      </c>
+      <c r="HM5">
+        <v>36.329000000000001</v>
+      </c>
+      <c r="HN5">
+        <v>36.377000000000002</v>
+      </c>
+      <c r="HO5">
+        <v>33.686999999999998</v>
+      </c>
+      <c r="HP5">
+        <v>37.911999999999999</v>
+      </c>
+      <c r="HQ5">
+        <v>40.628999999999998</v>
+      </c>
+      <c r="HR5">
+        <v>40.573</v>
+      </c>
+      <c r="HS5">
+        <v>37.783999999999999</v>
+      </c>
+      <c r="HT5">
+        <v>37.890999999999998</v>
+      </c>
+      <c r="HU5">
+        <v>36.366</v>
+      </c>
+      <c r="HV5">
+        <v>32.244</v>
+      </c>
+      <c r="HW5">
+        <v>38.600999999999999</v>
+      </c>
+      <c r="HX5">
+        <v>38.923000000000002</v>
+      </c>
+      <c r="HY5">
+        <v>36.168999999999997</v>
+      </c>
+      <c r="HZ5">
+        <v>39.043999999999997</v>
+      </c>
+      <c r="IA5">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="IB5">
+        <v>38.764000000000003</v>
+      </c>
+      <c r="IC5">
+        <v>37.633000000000003</v>
+      </c>
+      <c r="ID5">
+        <v>38.448999999999998</v>
+      </c>
+      <c r="IE5">
+        <v>39.165999999999997</v>
+      </c>
+      <c r="IF5">
+        <v>34.713000000000001</v>
+      </c>
+      <c r="IG5">
+        <v>37.374000000000002</v>
+      </c>
+      <c r="IH5">
+        <v>36.261000000000003</v>
+      </c>
+      <c r="II5">
+        <v>36</v>
+      </c>
+      <c r="IJ5">
+        <v>35.487000000000002</v>
+      </c>
+      <c r="IK5">
+        <v>41.643999999999998</v>
+      </c>
+      <c r="IL5">
+        <v>41.183999999999997</v>
+      </c>
+      <c r="IM5">
+        <v>40.039000000000001</v>
+      </c>
+      <c r="IN5">
+        <v>41.664999999999999</v>
+      </c>
+      <c r="IO5">
+        <v>38.709000000000003</v>
+      </c>
+      <c r="IP5">
+        <v>39.470999999999997</v>
+      </c>
+      <c r="IQ5">
+        <v>39.634</v>
+      </c>
+      <c r="IR5">
+        <v>41.801000000000002</v>
+      </c>
+      <c r="IS5">
+        <v>41.057000000000002</v>
+      </c>
+      <c r="IT5">
+        <v>40.695</v>
+      </c>
+      <c r="IU5">
+        <v>36.843000000000004</v>
+      </c>
+      <c r="IV5">
+        <v>33.93</v>
+      </c>
+      <c r="IW5">
+        <v>37.427999999999997</v>
+      </c>
+      <c r="IX5">
+        <v>38.4</v>
+      </c>
+      <c r="IY5">
+        <v>42.31</v>
+      </c>
+      <c r="IZ5">
+        <v>40.375</v>
+      </c>
+      <c r="JA5">
+        <v>37.265000000000001</v>
+      </c>
+      <c r="JB5">
+        <v>41.018999999999998</v>
+      </c>
+      <c r="JC5">
+        <v>35.866</v>
+      </c>
+      <c r="JD5">
+        <v>38.872</v>
+      </c>
+      <c r="JE5">
+        <v>36.250999999999998</v>
+      </c>
+      <c r="JF5">
+        <v>41.34</v>
+      </c>
+      <c r="JG5">
+        <v>40.356999999999999</v>
+      </c>
+      <c r="JH5">
+        <v>38.985999999999997</v>
+      </c>
+      <c r="JI5">
+        <v>41.661000000000001</v>
+      </c>
+      <c r="JJ5">
+        <v>39.323999999999998</v>
+      </c>
+      <c r="JK5">
+        <v>35.085000000000001</v>
+      </c>
+      <c r="JL5">
+        <v>43.338000000000001</v>
+      </c>
+      <c r="JM5">
+        <v>40.311999999999998</v>
+      </c>
+      <c r="JN5">
+        <v>43.393999999999998</v>
+      </c>
+      <c r="JO5">
+        <v>36.966000000000001</v>
+      </c>
+      <c r="JP5">
+        <v>38.981999999999999</v>
+      </c>
+      <c r="JQ5">
+        <v>40.439</v>
+      </c>
+      <c r="JR5">
+        <v>42.353999999999999</v>
+      </c>
+      <c r="JS5">
+        <v>40.634</v>
+      </c>
+      <c r="JT5">
+        <v>40.151000000000003</v>
+      </c>
+      <c r="JU5">
+        <v>38.390999999999998</v>
+      </c>
+      <c r="JV5">
+        <v>39.741</v>
+      </c>
+      <c r="JW5">
+        <v>33.808999999999997</v>
+      </c>
+      <c r="JX5">
+        <v>37.997</v>
+      </c>
+      <c r="JY5">
+        <v>37.71</v>
+      </c>
+      <c r="JZ5">
+        <v>38.378999999999998</v>
+      </c>
+      <c r="KA5">
+        <v>39.889000000000003</v>
+      </c>
+      <c r="KB5">
+        <v>39.585000000000001</v>
+      </c>
+      <c r="KC5">
+        <v>37.57</v>
+      </c>
+      <c r="KD5">
+        <v>42.040999999999997</v>
+      </c>
+      <c r="KE5">
+        <v>41.44</v>
+      </c>
+      <c r="KF5">
+        <v>40.594999999999999</v>
+      </c>
+      <c r="KG5">
+        <v>37.21</v>
+      </c>
+      <c r="KH5">
+        <v>39.667000000000002</v>
+      </c>
+      <c r="KI5">
+        <v>39.497</v>
+      </c>
+      <c r="KJ5">
+        <v>39.667000000000002</v>
+      </c>
+      <c r="KK5">
+        <v>40.009</v>
+      </c>
+      <c r="KL5">
+        <v>38.518999999999998</v>
+      </c>
+      <c r="KM5">
+        <v>41.459000000000003</v>
+      </c>
+      <c r="KN5">
+        <v>38.43</v>
+      </c>
+      <c r="KO5">
+        <v>39.71</v>
+      </c>
+      <c r="KP5">
+        <v>40.81</v>
+      </c>
+      <c r="KQ5">
+        <v>44.165999999999997</v>
+      </c>
+      <c r="KR5">
+        <v>41.610999999999997</v>
+      </c>
+      <c r="KS5">
+        <v>36.365000000000002</v>
+      </c>
+      <c r="KT5">
+        <v>41.204000000000001</v>
+      </c>
+      <c r="KU5">
+        <v>35.335000000000001</v>
+      </c>
+      <c r="KV5">
+        <v>38.460999999999999</v>
+      </c>
+      <c r="KW5">
+        <v>42.679000000000002</v>
+      </c>
+      <c r="KX5">
+        <v>39.161000000000001</v>
+      </c>
+      <c r="KY5">
+        <v>37.298000000000002</v>
+      </c>
+      <c r="KZ5">
+        <v>42.57</v>
+      </c>
+      <c r="LA5">
+        <v>37.74</v>
+      </c>
+      <c r="LB5">
+        <v>41.796999999999997</v>
+      </c>
+      <c r="LC5">
+        <v>39.832000000000001</v>
+      </c>
+      <c r="LD5">
+        <v>41.484000000000002</v>
+      </c>
+      <c r="LE5">
+        <v>39.161999999999999</v>
+      </c>
+      <c r="LF5">
+        <v>41.841999999999999</v>
+      </c>
+      <c r="LG5">
+        <v>41.06</v>
+      </c>
+      <c r="LH5">
+        <v>45.070999999999998</v>
+      </c>
+      <c r="LI5">
+        <v>40.884999999999998</v>
+      </c>
+      <c r="LJ5">
+        <v>38.692999999999998</v>
+      </c>
+      <c r="LK5">
+        <v>38.106999999999999</v>
+      </c>
+      <c r="LL5">
+        <v>36.265000000000001</v>
+      </c>
+      <c r="LM5">
+        <v>39.207000000000001</v>
+      </c>
+      <c r="LN5">
+        <v>38.741999999999997</v>
+      </c>
+      <c r="LO5">
+        <v>41.04</v>
+      </c>
+      <c r="LP5">
+        <v>41.344999999999999</v>
+      </c>
+      <c r="LQ5">
+        <v>44.247</v>
+      </c>
+      <c r="LR5">
+        <v>41.774999999999999</v>
+      </c>
+      <c r="LS5">
+        <v>40.697000000000003</v>
+      </c>
+      <c r="LT5">
+        <v>38.552</v>
+      </c>
+      <c r="LU5">
+        <v>41.706000000000003</v>
+      </c>
+      <c r="LV5">
+        <v>41.079000000000001</v>
+      </c>
+      <c r="LW5">
+        <v>45.752000000000002</v>
+      </c>
+      <c r="LX5">
+        <v>43.143999999999998</v>
+      </c>
+      <c r="LY5">
+        <v>37.901000000000003</v>
+      </c>
+      <c r="LZ5">
+        <v>38.694000000000003</v>
+      </c>
+      <c r="MA5">
+        <v>37.338000000000001</v>
+      </c>
+      <c r="MB5">
+        <v>36.613999999999997</v>
+      </c>
+      <c r="MC5">
+        <v>42.006999999999998</v>
+      </c>
+      <c r="MD5">
+        <v>34.945999999999998</v>
+      </c>
+      <c r="ME5">
+        <v>37.683999999999997</v>
+      </c>
+      <c r="MF5">
+        <v>44.042000000000002</v>
+      </c>
+      <c r="MG5">
+        <v>39.344999999999999</v>
+      </c>
+      <c r="MH5">
+        <v>38.601999999999997</v>
+      </c>
+      <c r="MI5">
+        <v>35.481999999999999</v>
+      </c>
+      <c r="MJ5">
+        <v>36.168999999999997</v>
+      </c>
+      <c r="MK5">
+        <v>39.54</v>
+      </c>
+      <c r="ML5">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="MM5">
+        <v>38.116999999999997</v>
+      </c>
+      <c r="MN5">
+        <v>38.859000000000002</v>
+      </c>
+      <c r="MO5">
+        <v>40.816000000000003</v>
+      </c>
+      <c r="MP5">
+        <v>34.517000000000003</v>
+      </c>
+      <c r="MQ5">
+        <v>42.820999999999998</v>
+      </c>
+      <c r="MR5">
+        <v>40.607999999999997</v>
+      </c>
+      <c r="MS5">
+        <v>38.283000000000001</v>
+      </c>
+      <c r="MT5">
+        <v>35.173999999999999</v>
+      </c>
+      <c r="MU5">
+        <v>36.866</v>
+      </c>
+      <c r="MV5">
+        <v>41.387999999999998</v>
+      </c>
+      <c r="MW5">
+        <v>41.575000000000003</v>
+      </c>
+      <c r="MX5">
+        <v>38.216999999999999</v>
+      </c>
+      <c r="MY5">
+        <v>38.078000000000003</v>
+      </c>
+      <c r="MZ5">
+        <v>36.259</v>
+      </c>
+      <c r="NA5">
+        <v>40.28</v>
+      </c>
+      <c r="NB5">
+        <v>38.802999999999997</v>
+      </c>
+      <c r="NC5">
+        <v>38.597000000000001</v>
+      </c>
+      <c r="ND5">
+        <v>35.866999999999997</v>
+      </c>
+      <c r="NE5">
+        <v>38.283000000000001</v>
+      </c>
+      <c r="NF5">
+        <v>43.323999999999998</v>
+      </c>
+      <c r="NG5">
+        <v>34.984999999999999</v>
+      </c>
+      <c r="NH5">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="NI5">
+        <v>38.112000000000002</v>
+      </c>
+      <c r="NJ5">
+        <v>35.296999999999997</v>
+      </c>
+      <c r="NK5">
+        <v>37.436</v>
+      </c>
+      <c r="NL5">
+        <v>35.405000000000001</v>
+      </c>
+      <c r="NM5">
+        <v>39.793999999999997</v>
+      </c>
+      <c r="NN5">
+        <v>41.552999999999997</v>
+      </c>
+      <c r="NO5">
+        <v>39.426000000000002</v>
+      </c>
+      <c r="NP5">
+        <v>40.317999999999998</v>
+      </c>
+      <c r="NQ5">
+        <v>39.274000000000001</v>
+      </c>
+      <c r="NR5">
+        <v>42.212000000000003</v>
+      </c>
+      <c r="NS5">
+        <v>39.511000000000003</v>
+      </c>
+      <c r="NT5">
+        <v>40.540999999999997</v>
+      </c>
+      <c r="NU5">
+        <v>39.091000000000001</v>
+      </c>
+      <c r="NV5">
+        <v>37.780999999999999</v>
+      </c>
+      <c r="NW5">
+        <v>39.314999999999998</v>
+      </c>
+      <c r="NX5">
+        <v>38.295000000000002</v>
+      </c>
+      <c r="NY5">
+        <v>42.384999999999998</v>
+      </c>
+      <c r="NZ5">
+        <v>40.146999999999998</v>
+      </c>
+      <c r="OA5">
+        <v>43.371000000000002</v>
+      </c>
+      <c r="OB5">
+        <v>46.661999999999999</v>
+      </c>
+      <c r="OC5">
+        <v>40.451000000000001</v>
+      </c>
+      <c r="OD5">
+        <v>37.457000000000001</v>
+      </c>
+      <c r="OE5">
+        <v>37.902999999999999</v>
+      </c>
+      <c r="OF5">
+        <v>37.283999999999999</v>
+      </c>
+      <c r="OG5">
+        <v>38.143000000000001</v>
+      </c>
+      <c r="OH5">
+        <v>37.31</v>
+      </c>
+      <c r="OI5">
+        <v>39.738</v>
+      </c>
+      <c r="OJ5">
+        <v>40.546999999999997</v>
+      </c>
+      <c r="OK5">
+        <v>37.290999999999997</v>
+      </c>
+      <c r="OL5">
+        <v>37.268999999999998</v>
+      </c>
+      <c r="OM5">
+        <v>42.991999999999997</v>
+      </c>
+      <c r="ON5">
+        <v>40.201000000000001</v>
+      </c>
+      <c r="OO5">
+        <v>38.503999999999998</v>
+      </c>
+      <c r="OP5">
+        <v>39.323999999999998</v>
+      </c>
+      <c r="OQ5">
+        <v>41.616</v>
+      </c>
+      <c r="OR5">
+        <v>39.762</v>
+      </c>
+      <c r="OS5">
+        <v>37.662999999999997</v>
+      </c>
+      <c r="OT5">
+        <v>38.939</v>
+      </c>
+      <c r="OU5">
+        <v>34.963000000000001</v>
+      </c>
+      <c r="OV5">
+        <v>39.723999999999997</v>
+      </c>
+      <c r="OW5">
+        <v>36.920999999999999</v>
+      </c>
+      <c r="OX5">
+        <v>36.173999999999999</v>
+      </c>
+      <c r="OY5">
+        <v>36.058</v>
+      </c>
+      <c r="OZ5">
+        <v>37.203000000000003</v>
+      </c>
+      <c r="PA5">
+        <v>37.646999999999998</v>
+      </c>
+      <c r="PB5">
+        <v>38.779000000000003</v>
+      </c>
+      <c r="PC5">
+        <v>37.369999999999997</v>
+      </c>
+      <c r="PD5">
+        <v>36.567999999999998</v>
+      </c>
+      <c r="PE5">
+        <v>39.908000000000001</v>
+      </c>
+      <c r="PF5">
+        <v>36.506</v>
+      </c>
+      <c r="PG5">
+        <v>36.180999999999997</v>
+      </c>
+      <c r="PH5">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="PI5">
+        <v>36.56</v>
+      </c>
+      <c r="PJ5">
+        <v>34.741</v>
+      </c>
+      <c r="PK5">
+        <v>36.484999999999999</v>
+      </c>
+      <c r="PL5">
+        <v>37.252000000000002</v>
+      </c>
+      <c r="PM5">
+        <v>37.835999999999999</v>
+      </c>
+      <c r="PN5">
+        <v>35.853000000000002</v>
+      </c>
+      <c r="PO5">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="PP5">
+        <v>40.64</v>
+      </c>
+      <c r="PQ5">
+        <v>41.968000000000004</v>
+      </c>
+      <c r="PR5">
+        <v>36.563000000000002</v>
+      </c>
+      <c r="PS5">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="PT5">
+        <v>44.459000000000003</v>
+      </c>
+      <c r="PU5">
+        <v>41.085999999999999</v>
+      </c>
+      <c r="PV5">
+        <v>38.750999999999998</v>
+      </c>
+      <c r="PW5">
+        <v>34.04</v>
+      </c>
+      <c r="PX5">
+        <v>39.011000000000003</v>
+      </c>
+      <c r="PY5">
+        <v>37.508000000000003</v>
+      </c>
+      <c r="PZ5">
+        <v>43.095999999999997</v>
+      </c>
+      <c r="QA5">
+        <v>39.225999999999999</v>
+      </c>
+      <c r="QB5">
+        <v>40.252000000000002</v>
+      </c>
+      <c r="QC5">
+        <v>39.546999999999997</v>
+      </c>
+      <c r="QD5">
+        <v>36.798000000000002</v>
+      </c>
+      <c r="QE5">
+        <v>40.094000000000001</v>
+      </c>
+      <c r="QF5">
+        <v>31.687000000000001</v>
+      </c>
+      <c r="QG5">
+        <v>40.817</v>
+      </c>
+      <c r="QH5">
+        <v>40.631999999999998</v>
+      </c>
+      <c r="QI5">
+        <v>36.494999999999997</v>
+      </c>
+      <c r="QJ5">
+        <v>35.661000000000001</v>
+      </c>
+      <c r="QK5">
+        <v>41.573</v>
+      </c>
+      <c r="QL5">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="QM5">
+        <v>40.302</v>
+      </c>
+      <c r="QN5">
+        <v>39.262</v>
+      </c>
+      <c r="QO5">
+        <v>37.792000000000002</v>
+      </c>
+      <c r="QP5">
+        <v>41.414999999999999</v>
+      </c>
+      <c r="QQ5">
+        <v>36.418999999999997</v>
+      </c>
+      <c r="QR5">
+        <v>35.901000000000003</v>
+      </c>
+      <c r="QS5">
+        <v>34.658000000000001</v>
+      </c>
+      <c r="QT5">
+        <v>40.889000000000003</v>
+      </c>
+      <c r="QU5">
+        <v>38.718000000000004</v>
+      </c>
+      <c r="QV5">
+        <v>38.238999999999997</v>
+      </c>
+      <c r="QW5">
+        <v>37.814999999999998</v>
+      </c>
+      <c r="QX5">
+        <v>44.018999999999998</v>
+      </c>
+      <c r="QY5">
+        <v>40.133000000000003</v>
+      </c>
+      <c r="QZ5">
+        <v>37.369</v>
+      </c>
+      <c r="RA5">
+        <v>42.478999999999999</v>
+      </c>
+      <c r="RB5">
+        <v>34.176000000000002</v>
+      </c>
+      <c r="RC5">
+        <v>38.597999999999999</v>
+      </c>
+      <c r="RD5">
+        <v>36.908000000000001</v>
+      </c>
+      <c r="RE5">
+        <v>40.323</v>
+      </c>
+      <c r="RF5">
+        <v>38.911000000000001</v>
+      </c>
+      <c r="RG5">
+        <v>38.552</v>
+      </c>
+      <c r="RH5">
+        <v>36.031999999999996</v>
+      </c>
+      <c r="RI5">
+        <v>40.177</v>
+      </c>
+      <c r="RJ5">
+        <v>37.451000000000001</v>
+      </c>
+      <c r="RK5">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="RL5">
+        <v>35.610999999999997</v>
+      </c>
+      <c r="RM5">
+        <v>39.287999999999997</v>
+      </c>
+      <c r="RN5">
+        <v>39.679000000000002</v>
+      </c>
+      <c r="RO5">
+        <v>38.151000000000003</v>
+      </c>
+      <c r="RP5">
+        <v>41.259</v>
+      </c>
+      <c r="RQ5">
+        <v>37.512999999999998</v>
+      </c>
+      <c r="RR5">
+        <v>36.750999999999998</v>
+      </c>
+      <c r="RS5">
+        <v>42.750999999999998</v>
+      </c>
+      <c r="RT5">
+        <v>38.793999999999997</v>
+      </c>
+      <c r="RU5">
+        <v>43.898000000000003</v>
+      </c>
+      <c r="RV5">
+        <v>35.966999999999999</v>
+      </c>
+      <c r="RW5">
+        <v>38.292000000000002</v>
+      </c>
+      <c r="RX5">
+        <v>39.423999999999999</v>
+      </c>
+      <c r="RY5">
+        <v>34.345999999999997</v>
+      </c>
+      <c r="RZ5">
+        <v>35.290999999999997</v>
+      </c>
+      <c r="SA5">
+        <v>38.561</v>
+      </c>
+      <c r="SB5">
+        <v>40.664000000000001</v>
+      </c>
+      <c r="SC5">
+        <v>35.871000000000002</v>
+      </c>
+      <c r="SD5">
+        <v>41.058999999999997</v>
+      </c>
+      <c r="SE5">
+        <v>34.167000000000002</v>
+      </c>
+      <c r="SF5">
+        <v>38.555999999999997</v>
+      </c>
+      <c r="SG5">
+        <v>37.082000000000001</v>
+      </c>
+      <c r="SH5">
+        <v>37.667000000000002</v>
+      </c>
+      <c r="SI5">
+        <v>38.404000000000003</v>
+      </c>
+      <c r="SJ5">
+        <v>33.381</v>
+      </c>
+      <c r="SK5">
+        <v>33.231000000000002</v>
+      </c>
+      <c r="SL5">
+        <v>35.545000000000002</v>
+      </c>
+      <c r="SM5">
+        <v>40.637</v>
+      </c>
+      <c r="SN5">
+        <v>35.451999999999998</v>
+      </c>
+      <c r="SO5">
+        <v>37.664999999999999</v>
+      </c>
+      <c r="SP5">
+        <v>37.192999999999998</v>
+      </c>
+      <c r="SQ5">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="SR5">
+        <v>37.206000000000003</v>
+      </c>
+      <c r="SS5">
+        <v>40.179000000000002</v>
+      </c>
+      <c r="ST5">
+        <v>38.625999999999998</v>
+      </c>
+      <c r="SU5">
+        <v>36.905000000000001</v>
+      </c>
+      <c r="SV5">
+        <v>36.606000000000002</v>
+      </c>
+      <c r="SW5">
+        <v>32.981000000000002</v>
+      </c>
+      <c r="SX5">
+        <v>36.177999999999997</v>
+      </c>
+      <c r="SY5">
+        <v>38.933</v>
+      </c>
+      <c r="SZ5">
+        <v>34.124000000000002</v>
+      </c>
+      <c r="TA5">
+        <v>35.731000000000002</v>
+      </c>
+      <c r="TB5">
+        <v>36.036000000000001</v>
+      </c>
+      <c r="TC5">
+        <v>35.784999999999997</v>
+      </c>
+      <c r="TD5">
+        <v>33.287999999999997</v>
+      </c>
+      <c r="TE5">
+        <v>40.441000000000003</v>
+      </c>
+      <c r="TF5">
+        <v>35.043999999999997</v>
+      </c>
+      <c r="TG5">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="TH5">
+        <v>37.436</v>
+      </c>
+      <c r="TI5">
+        <v>32.701000000000001</v>
+      </c>
+      <c r="TJ5">
+        <v>38.530999999999999</v>
+      </c>
+      <c r="TK5">
+        <v>36.381999999999998</v>
+      </c>
+      <c r="TL5">
+        <v>39.414000000000001</v>
+      </c>
+      <c r="TM5">
+        <v>40.756</v>
+      </c>
+      <c r="TN5">
+        <v>36.284999999999997</v>
+      </c>
+      <c r="TO5">
+        <v>37.375999999999998</v>
+      </c>
+      <c r="TP5">
+        <v>35.465000000000003</v>
+      </c>
+      <c r="TQ5">
+        <v>35.414000000000001</v>
+      </c>
+      <c r="TR5">
+        <v>35.966999999999999</v>
+      </c>
+      <c r="TS5">
+        <v>35.337000000000003</v>
+      </c>
+      <c r="TT5">
+        <v>38.948</v>
+      </c>
+      <c r="TU5">
+        <v>41.817</v>
+      </c>
+      <c r="TV5">
+        <v>36.460999999999999</v>
+      </c>
+      <c r="TW5">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="TX5">
+        <v>32.988999999999997</v>
+      </c>
+      <c r="TY5">
+        <v>37.534999999999997</v>
+      </c>
+      <c r="TZ5">
+        <v>36.046999999999997</v>
+      </c>
+      <c r="UA5">
+        <v>34.271000000000001</v>
+      </c>
+      <c r="UB5">
+        <v>39.563000000000002</v>
+      </c>
+      <c r="UC5">
+        <v>36.459000000000003</v>
+      </c>
+      <c r="UD5">
+        <v>39.953000000000003</v>
+      </c>
+      <c r="UE5">
+        <v>36.204999999999998</v>
+      </c>
+      <c r="UF5">
+        <v>37.902999999999999</v>
+      </c>
+      <c r="UG5">
+        <v>37.411999999999999</v>
+      </c>
+      <c r="UH5">
+        <v>39.808999999999997</v>
+      </c>
+      <c r="UI5">
+        <v>35.436999999999998</v>
+      </c>
+      <c r="UJ5">
+        <v>40.158999999999999</v>
+      </c>
+      <c r="UK5">
+        <v>39.412999999999997</v>
+      </c>
+      <c r="UL5">
+        <v>39.813000000000002</v>
+      </c>
+      <c r="UM5">
+        <v>39.046999999999997</v>
+      </c>
+      <c r="UN5">
+        <v>37.948</v>
+      </c>
+      <c r="UO5">
+        <v>35.139000000000003</v>
+      </c>
+      <c r="UP5">
+        <v>35.295999999999999</v>
+      </c>
+      <c r="UQ5">
+        <v>42.326999999999998</v>
+      </c>
+      <c r="UR5">
+        <v>38.848999999999997</v>
+      </c>
+      <c r="US5">
+        <v>36.143000000000001</v>
+      </c>
+      <c r="UT5">
+        <v>35.790999999999997</v>
+      </c>
+      <c r="UU5">
+        <v>36.226999999999997</v>
+      </c>
+      <c r="UV5">
+        <v>36.874000000000002</v>
+      </c>
+      <c r="UW5">
+        <v>35.478000000000002</v>
+      </c>
+      <c r="UX5">
+        <v>41.165999999999997</v>
+      </c>
+      <c r="UY5">
+        <v>35.94</v>
+      </c>
+      <c r="UZ5">
+        <v>40.404000000000003</v>
+      </c>
+      <c r="VA5">
+        <v>36.341000000000001</v>
+      </c>
+      <c r="VB5">
+        <v>36.149000000000001</v>
+      </c>
+      <c r="VC5">
+        <v>33.735999999999997</v>
+      </c>
+      <c r="VD5">
+        <v>36.356999999999999</v>
+      </c>
+      <c r="VE5">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="VF5">
+        <v>36.884</v>
+      </c>
+      <c r="VG5">
+        <v>38.39</v>
+      </c>
+      <c r="VH5">
+        <v>36.808999999999997</v>
+      </c>
+      <c r="VI5">
+        <v>38.186999999999998</v>
+      </c>
+      <c r="VJ5">
+        <v>39.86</v>
+      </c>
+      <c r="VK5">
+        <v>33.381</v>
+      </c>
+      <c r="VL5">
+        <v>37.795999999999999</v>
+      </c>
+      <c r="VM5">
+        <v>34.305999999999997</v>
+      </c>
+      <c r="VN5">
+        <v>39.036999999999999</v>
+      </c>
+      <c r="VO5">
+        <v>36.585999999999999</v>
+      </c>
+      <c r="VP5">
+        <v>31.238</v>
+      </c>
+      <c r="VQ5">
+        <v>38.613</v>
+      </c>
+      <c r="VR5">
+        <v>35.383000000000003</v>
+      </c>
+      <c r="VS5">
+        <v>28.673999999999999</v>
+      </c>
+      <c r="VT5">
+        <v>36.244</v>
+      </c>
+      <c r="VU5">
+        <v>35.805</v>
+      </c>
+      <c r="VV5">
+        <v>38.238</v>
+      </c>
+      <c r="VW5">
+        <v>40.384</v>
+      </c>
+      <c r="VX5">
+        <v>40.423000000000002</v>
+      </c>
+      <c r="VY5">
+        <v>37.130000000000003</v>
+      </c>
+      <c r="VZ5">
+        <v>31.068000000000001</v>
+      </c>
+      <c r="WA5">
+        <v>33.256999999999998</v>
+      </c>
+      <c r="WB5">
+        <v>36.896000000000001</v>
+      </c>
+      <c r="WC5">
+        <v>34.311</v>
+      </c>
+      <c r="WD5">
+        <v>34.747999999999998</v>
+      </c>
+      <c r="WE5">
+        <v>30.887</v>
+      </c>
+      <c r="WF5">
+        <v>39.027999999999999</v>
+      </c>
+      <c r="WG5">
+        <v>36.258000000000003</v>
+      </c>
+      <c r="WH5">
+        <v>37.997</v>
+      </c>
+      <c r="WI5">
+        <v>38.145000000000003</v>
+      </c>
+      <c r="WJ5">
+        <v>35.195999999999998</v>
+      </c>
+      <c r="WK5">
+        <v>33.31</v>
+      </c>
+      <c r="WL5">
+        <v>35.156999999999996</v>
+      </c>
+      <c r="WM5">
+        <v>37.826000000000001</v>
+      </c>
+      <c r="WN5">
+        <v>40.215000000000003</v>
+      </c>
+      <c r="WO5">
+        <v>38.78</v>
+      </c>
+      <c r="WP5">
+        <v>36.601999999999997</v>
+      </c>
+      <c r="WQ5">
+        <v>38.283999999999999</v>
+      </c>
+      <c r="WR5">
+        <v>37.057000000000002</v>
+      </c>
+      <c r="WS5">
+        <v>38.122999999999998</v>
+      </c>
+      <c r="WT5">
+        <v>38.555</v>
+      </c>
+      <c r="WU5">
+        <v>37.81</v>
+      </c>
+      <c r="WV5">
+        <v>36.545999999999999</v>
+      </c>
+      <c r="WW5">
+        <v>36.264000000000003</v>
+      </c>
+      <c r="WX5">
+        <v>36.584000000000003</v>
+      </c>
+      <c r="WY5">
+        <v>38.152999999999999</v>
+      </c>
+      <c r="WZ5">
+        <v>38.811999999999998</v>
+      </c>
+      <c r="XA5">
+        <v>34.798000000000002</v>
+      </c>
+      <c r="XB5">
+        <v>35.271999999999998</v>
+      </c>
+      <c r="XC5">
+        <v>35.569000000000003</v>
+      </c>
+      <c r="XD5">
+        <v>37.692</v>
+      </c>
+      <c r="XE5">
+        <v>41.500999999999998</v>
+      </c>
+      <c r="XF5">
+        <v>35.186999999999998</v>
+      </c>
+      <c r="XG5">
+        <v>36.212000000000003</v>
+      </c>
+      <c r="XH5">
+        <v>37.661000000000001</v>
+      </c>
+      <c r="XI5">
+        <v>36.362000000000002</v>
+      </c>
+      <c r="XJ5">
+        <v>40.000999999999998</v>
+      </c>
+      <c r="XK5">
+        <v>36.792000000000002</v>
+      </c>
+      <c r="XL5">
+        <v>37.185000000000002</v>
+      </c>
+      <c r="XM5">
+        <v>35.396999999999998</v>
+      </c>
+      <c r="XN5">
+        <v>39.459000000000003</v>
+      </c>
+      <c r="XO5">
+        <v>36.713000000000001</v>
+      </c>
+      <c r="XP5">
+        <v>35.356000000000002</v>
+      </c>
+      <c r="XQ5">
+        <v>34.738</v>
+      </c>
+      <c r="XR5">
+        <v>36.811</v>
+      </c>
+      <c r="XS5">
+        <v>26.847000000000001</v>
+      </c>
+      <c r="XT5">
+        <v>35.741999999999997</v>
+      </c>
+      <c r="XU5">
+        <v>33.347000000000001</v>
+      </c>
+      <c r="XV5">
+        <v>36.573999999999998</v>
+      </c>
+      <c r="XW5">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="XX5">
+        <v>37.588000000000001</v>
+      </c>
+      <c r="XY5">
+        <v>37.119</v>
+      </c>
+      <c r="XZ5">
+        <v>32.329000000000001</v>
+      </c>
+      <c r="YA5">
+        <v>36.220999999999997</v>
+      </c>
+      <c r="YB5">
+        <v>36.640999999999998</v>
+      </c>
+      <c r="YC5">
+        <v>32.728999999999999</v>
+      </c>
+      <c r="YD5">
+        <v>34.051000000000002</v>
+      </c>
+      <c r="YE5">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="YF5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="YG5">
+        <v>34.121000000000002</v>
+      </c>
+      <c r="YH5">
+        <v>33.127000000000002</v>
+      </c>
+      <c r="YI5">
+        <v>33.313000000000002</v>
+      </c>
+      <c r="YJ5">
+        <v>34.515999999999998</v>
+      </c>
+      <c r="YK5">
+        <v>35.648000000000003</v>
+      </c>
+      <c r="YL5">
+        <v>35.292999999999999</v>
+      </c>
+      <c r="YM5">
+        <v>35.993000000000002</v>
+      </c>
+      <c r="YN5">
+        <v>34.826999999999998</v>
+      </c>
+      <c r="YO5">
+        <v>34.622</v>
+      </c>
+      <c r="YP5">
+        <v>35.845999999999997</v>
+      </c>
+      <c r="YQ5">
+        <v>31.102</v>
+      </c>
+      <c r="YR5">
+        <v>34.936999999999998</v>
+      </c>
+      <c r="YS5">
+        <v>32.43</v>
+      </c>
+      <c r="YT5">
+        <v>32.305999999999997</v>
+      </c>
+      <c r="YU5">
+        <v>32.661000000000001</v>
+      </c>
+      <c r="YV5">
+        <v>33.317999999999998</v>
+      </c>
+      <c r="YW5">
+        <v>28.22</v>
+      </c>
+      <c r="YX5">
+        <v>36.396000000000001</v>
+      </c>
+      <c r="YY5">
+        <v>34.012999999999998</v>
+      </c>
+      <c r="YZ5">
+        <v>35.981000000000002</v>
+      </c>
+      <c r="ZA5">
+        <v>34.612000000000002</v>
+      </c>
+      <c r="ZB5">
+        <v>40.305</v>
+      </c>
+      <c r="ZC5">
+        <v>36.345999999999997</v>
+      </c>
+      <c r="ZD5">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="ZE5">
+        <v>39.32</v>
+      </c>
+      <c r="ZF5">
+        <v>33.89</v>
+      </c>
+      <c r="ZG5">
+        <v>40.832999999999998</v>
+      </c>
+      <c r="ZH5">
+        <v>36.895000000000003</v>
+      </c>
+      <c r="ZI5">
+        <v>37.649000000000001</v>
+      </c>
+      <c r="ZJ5">
+        <v>34.280999999999999</v>
+      </c>
+      <c r="ZK5">
+        <v>37.795000000000002</v>
+      </c>
+      <c r="ZL5">
+        <v>37.926000000000002</v>
+      </c>
+      <c r="ZM5">
+        <v>33.320999999999998</v>
+      </c>
+      <c r="ZN5">
+        <v>34.677</v>
+      </c>
+      <c r="ZO5">
+        <v>38.219000000000001</v>
+      </c>
+      <c r="ZP5">
+        <v>35.941000000000003</v>
+      </c>
+      <c r="ZQ5">
+        <v>32.133000000000003</v>
+      </c>
+      <c r="ZR5">
+        <v>35.585000000000001</v>
+      </c>
+      <c r="ZS5">
+        <v>33.819000000000003</v>
+      </c>
+      <c r="ZT5">
+        <v>33.79</v>
+      </c>
+      <c r="ZU5">
+        <v>31.927</v>
+      </c>
+      <c r="ZV5">
+        <v>36.067999999999998</v>
+      </c>
+      <c r="ZW5">
+        <v>35.53</v>
+      </c>
+      <c r="ZX5">
+        <v>35.545999999999999</v>
+      </c>
+      <c r="ZY5">
+        <v>37.341999999999999</v>
+      </c>
+      <c r="ZZ5">
+        <v>33.591000000000001</v>
+      </c>
+      <c r="AAA5">
+        <v>34.686999999999998</v>
+      </c>
+      <c r="AAB5">
+        <v>31.638999999999999</v>
+      </c>
+      <c r="AAC5">
+        <v>35.332999999999998</v>
+      </c>
+      <c r="AAD5">
+        <v>33.972000000000001</v>
+      </c>
+      <c r="AAE5">
+        <v>33.31</v>
+      </c>
+      <c r="AAF5">
+        <v>38.494999999999997</v>
+      </c>
+      <c r="AAG5">
+        <v>36.591000000000001</v>
+      </c>
+      <c r="AAH5">
+        <v>38.133000000000003</v>
+      </c>
+      <c r="AAI5">
+        <v>35.936</v>
+      </c>
+      <c r="AAJ5">
+        <v>32.317999999999998</v>
+      </c>
+      <c r="AAK5">
+        <v>34.892000000000003</v>
+      </c>
+      <c r="AAL5">
+        <v>36.697000000000003</v>
+      </c>
+      <c r="AAM5">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="AAN5">
+        <v>31.513999999999999</v>
+      </c>
+      <c r="AAO5">
+        <v>33.171999999999997</v>
+      </c>
+      <c r="AAP5">
+        <v>36.057000000000002</v>
+      </c>
+      <c r="AAQ5">
+        <v>38.027000000000001</v>
+      </c>
+      <c r="AAR5">
+        <v>32.887</v>
+      </c>
+      <c r="AAS5">
+        <v>30.917000000000002</v>
+      </c>
+      <c r="AAT5">
+        <v>35.118000000000002</v>
+      </c>
+      <c r="AAU5">
+        <v>35.954999999999998</v>
+      </c>
+      <c r="AAV5">
+        <v>37.847999999999999</v>
+      </c>
+      <c r="AAW5">
+        <v>35.173999999999999</v>
+      </c>
+      <c r="AAX5">
+        <v>38.619</v>
+      </c>
+      <c r="AAY5">
+        <v>35.366999999999997</v>
+      </c>
+      <c r="AAZ5">
+        <v>35.926000000000002</v>
+      </c>
+      <c r="ABA5">
+        <v>39.686</v>
+      </c>
+      <c r="ABB5">
+        <v>37.911999999999999</v>
+      </c>
+      <c r="ABC5">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="ABD5">
+        <v>38.470999999999997</v>
+      </c>
+      <c r="ABE5">
+        <v>35.091999999999999</v>
+      </c>
+      <c r="ABF5">
+        <v>35.024999999999999</v>
+      </c>
+      <c r="ABG5">
+        <v>34.100999999999999</v>
+      </c>
+      <c r="ABH5">
+        <v>38.277000000000001</v>
+      </c>
+      <c r="ABI5">
+        <v>38.335999999999999</v>
+      </c>
+      <c r="ABJ5">
+        <v>35.564</v>
+      </c>
+      <c r="ABK5">
+        <v>34.539000000000001</v>
+      </c>
+      <c r="ABL5">
+        <v>38.298000000000002</v>
+      </c>
+      <c r="ABM5">
+        <v>36.857999999999997</v>
+      </c>
+      <c r="ABN5">
+        <v>32.993000000000002</v>
+      </c>
+      <c r="ABO5">
+        <v>38.468000000000004</v>
+      </c>
+      <c r="ABP5">
+        <v>34.499000000000002</v>
+      </c>
+      <c r="ABQ5">
+        <v>33.384</v>
+      </c>
+      <c r="ABR5">
+        <v>39.947000000000003</v>
+      </c>
+      <c r="ABS5">
+        <v>35.506</v>
+      </c>
+      <c r="ABT5">
+        <v>38.222000000000001</v>
+      </c>
+      <c r="ABU5">
+        <v>36.204999999999998</v>
+      </c>
+      <c r="ABV5">
+        <v>37.017000000000003</v>
+      </c>
+      <c r="ABW5">
+        <v>39.944000000000003</v>
+      </c>
+      <c r="ABX5">
+        <v>40.29</v>
+      </c>
+      <c r="ABY5">
+        <v>36.32</v>
+      </c>
+      <c r="ABZ5">
+        <v>35.972999999999999</v>
+      </c>
+      <c r="ACA5">
+        <v>31.838000000000001</v>
+      </c>
+      <c r="ACB5">
+        <v>39.097999999999999</v>
+      </c>
+      <c r="ACC5">
+        <v>34.472000000000001</v>
+      </c>
+      <c r="ACD5">
+        <v>37.057000000000002</v>
+      </c>
+      <c r="ACE5">
+        <v>36.351999999999997</v>
+      </c>
+      <c r="ACF5">
+        <v>37.905999999999999</v>
+      </c>
+      <c r="ACG5">
+        <v>36.847000000000001</v>
+      </c>
+      <c r="ACH5">
+        <v>36.707999999999998</v>
+      </c>
+      <c r="ACI5">
+        <v>37.860999999999997</v>
+      </c>
+      <c r="ACJ5">
+        <v>32.651000000000003</v>
+      </c>
+      <c r="ACK5">
+        <v>40.156999999999996</v>
+      </c>
+      <c r="ACL5">
+        <v>35.738999999999997</v>
+      </c>
+      <c r="ACM5">
+        <v>37.631</v>
+      </c>
+      <c r="ACN5">
+        <v>32.478999999999999</v>
+      </c>
+      <c r="ACO5">
+        <v>35.941000000000003</v>
+      </c>
+      <c r="ACP5">
+        <v>37.905000000000001</v>
+      </c>
+      <c r="ACQ5">
+        <v>34.039000000000001</v>
+      </c>
+      <c r="ACR5">
+        <v>37.192</v>
+      </c>
+      <c r="ACS5">
+        <v>35.328000000000003</v>
+      </c>
+      <c r="ACT5">
+        <v>37.462000000000003</v>
+      </c>
+      <c r="ACU5">
+        <v>35.183</v>
+      </c>
+      <c r="ACV5">
+        <v>34.954999999999998</v>
+      </c>
+      <c r="ACW5">
+        <v>36.055</v>
+      </c>
+      <c r="ACX5">
+        <v>37.424999999999997</v>
+      </c>
+      <c r="ACY5">
+        <v>37.938000000000002</v>
+      </c>
+      <c r="ACZ5">
+        <v>33.506999999999998</v>
+      </c>
+      <c r="ADA5">
+        <v>36.655999999999999</v>
+      </c>
+      <c r="ADB5">
+        <v>33.923999999999999</v>
+      </c>
+      <c r="ADC5">
+        <v>36.396999999999998</v>
+      </c>
+      <c r="ADD5">
+        <v>33.926000000000002</v>
+      </c>
+      <c r="ADE5">
+        <v>35.918999999999997</v>
+      </c>
+      <c r="ADF5">
+        <v>40.9</v>
+      </c>
+      <c r="ADG5">
+        <v>35.018000000000001</v>
+      </c>
+      <c r="ADH5">
+        <v>34.551000000000002</v>
+      </c>
+      <c r="ADI5">
+        <v>28.378</v>
+      </c>
+      <c r="ADJ5">
+        <v>38.585999999999999</v>
+      </c>
+      <c r="ADK5">
+        <v>31.794</v>
+      </c>
+      <c r="ADL5">
+        <v>36.932000000000002</v>
+      </c>
+      <c r="ADM5">
+        <v>33.281999999999996</v>
+      </c>
+      <c r="ADN5">
+        <v>33.97</v>
+      </c>
+      <c r="ADO5">
+        <v>35.924999999999997</v>
+      </c>
+      <c r="ADP5">
+        <v>33.851999999999997</v>
+      </c>
+      <c r="ADQ5">
+        <v>31.960999999999999</v>
+      </c>
+      <c r="ADR5">
+        <v>38.756999999999998</v>
+      </c>
+      <c r="ADS5">
+        <v>36.658999999999999</v>
+      </c>
+      <c r="ADT5">
+        <v>36.17</v>
+      </c>
+      <c r="ADU5">
+        <v>37.33</v>
+      </c>
+      <c r="ADV5">
+        <v>39.774999999999999</v>
+      </c>
+      <c r="ADW5">
+        <v>38.353999999999999</v>
+      </c>
+      <c r="ADX5">
+        <v>36.987000000000002</v>
+      </c>
+      <c r="ADY5">
+        <v>32.232999999999997</v>
+      </c>
+      <c r="ADZ5">
+        <v>40.04</v>
+      </c>
+      <c r="AEA5">
+        <v>38.389000000000003</v>
+      </c>
+      <c r="AEB5">
+        <v>37.938000000000002</v>
+      </c>
+      <c r="AEC5">
+        <v>38.999000000000002</v>
+      </c>
+      <c r="AED5">
+        <v>38.956000000000003</v>
+      </c>
+      <c r="AEE5">
+        <v>41.082000000000001</v>
+      </c>
+      <c r="AEF5">
+        <v>35.051000000000002</v>
+      </c>
+      <c r="AEG5">
+        <v>35.948999999999998</v>
+      </c>
+      <c r="AEH5">
+        <v>34.738</v>
+      </c>
+      <c r="AEI5">
+        <v>37.414000000000001</v>
+      </c>
+      <c r="AEJ5">
+        <v>34.822000000000003</v>
+      </c>
+      <c r="AEK5">
+        <v>37.369</v>
+      </c>
+      <c r="AEL5">
+        <v>39.06</v>
+      </c>
+      <c r="AEM5">
+        <v>34.231000000000002</v>
+      </c>
+      <c r="AEN5">
+        <v>35.906999999999996</v>
+      </c>
+      <c r="AEO5">
+        <v>34.921999999999997</v>
+      </c>
+      <c r="AEP5">
+        <v>38.444000000000003</v>
+      </c>
+      <c r="AEQ5">
+        <v>39.295000000000002</v>
+      </c>
+      <c r="AER5">
+        <v>33.51</v>
+      </c>
+      <c r="AES5">
+        <v>38.765000000000001</v>
+      </c>
+      <c r="AET5">
+        <v>35.890999999999998</v>
+      </c>
+      <c r="AEU5">
+        <v>34.997</v>
+      </c>
+      <c r="AEV5">
+        <v>36.656999999999996</v>
+      </c>
+      <c r="AEW5">
+        <v>36.32</v>
+      </c>
+      <c r="AEX5">
+        <v>39.006999999999998</v>
+      </c>
+      <c r="AEY5">
+        <v>35.338000000000001</v>
+      </c>
+      <c r="AEZ5">
+        <v>36.969000000000001</v>
+      </c>
+      <c r="AFA5">
+        <v>34.551000000000002</v>
+      </c>
+      <c r="AFB5">
+        <v>33.767000000000003</v>
+      </c>
+      <c r="AFC5">
+        <v>36.176000000000002</v>
+      </c>
+      <c r="AFD5">
+        <v>37.813000000000002</v>
+      </c>
+      <c r="AFE5">
+        <v>40.737000000000002</v>
+      </c>
+      <c r="AFF5">
+        <v>35.369</v>
+      </c>
+      <c r="AFG5">
+        <v>34.356999999999999</v>
+      </c>
+      <c r="AFH5">
+        <v>40.527999999999999</v>
+      </c>
+      <c r="AFI5">
+        <v>37.398000000000003</v>
+      </c>
+      <c r="AFJ5">
+        <v>36.831000000000003</v>
+      </c>
+      <c r="AFK5">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="AFL5">
+        <v>37.116</v>
+      </c>
+      <c r="AFM5">
+        <v>37.893000000000001</v>
+      </c>
+      <c r="AFN5">
+        <v>36.948</v>
+      </c>
+      <c r="AFO5">
+        <v>38.890999999999998</v>
+      </c>
+      <c r="AFP5">
+        <v>37.122999999999998</v>
+      </c>
+      <c r="AFQ5">
+        <v>37.25</v>
+      </c>
+      <c r="AFR5">
+        <v>40.856000000000002</v>
+      </c>
+      <c r="AFS5">
+        <v>37.534999999999997</v>
+      </c>
+      <c r="AFT5">
+        <v>37.805999999999997</v>
+      </c>
+      <c r="AFU5">
+        <v>38.795999999999999</v>
+      </c>
+      <c r="AFV5">
+        <v>39.484000000000002</v>
+      </c>
+      <c r="AFW5">
+        <v>40.493000000000002</v>
+      </c>
+      <c r="AFX5">
+        <v>37.966999999999999</v>
+      </c>
+      <c r="AFY5">
+        <v>39.331000000000003</v>
+      </c>
+      <c r="AFZ5">
+        <v>38.414000000000001</v>
+      </c>
+      <c r="AGA5">
+        <v>43.774000000000001</v>
+      </c>
+      <c r="AGB5">
+        <v>35.533999999999999</v>
+      </c>
+      <c r="AGC5">
+        <v>40.31</v>
+      </c>
+      <c r="AGD5">
+        <v>39.453000000000003</v>
+      </c>
+      <c r="AGE5">
+        <v>42.551000000000002</v>
+      </c>
+      <c r="AGF5">
+        <v>36.793999999999997</v>
+      </c>
+      <c r="AGG5">
+        <v>37.209000000000003</v>
+      </c>
+      <c r="AGH5">
+        <v>38.982999999999997</v>
+      </c>
+      <c r="AGI5">
+        <v>38.473999999999997</v>
+      </c>
+      <c r="AGJ5">
+        <v>34.325000000000003</v>
+      </c>
+      <c r="AGK5">
+        <v>37.225000000000001</v>
+      </c>
+      <c r="AGL5">
+        <v>36.862000000000002</v>
+      </c>
+      <c r="AGM5">
+        <v>33.887</v>
+      </c>
+      <c r="AGN5">
+        <v>33.963999999999999</v>
+      </c>
+      <c r="AGO5">
+        <v>35.752000000000002</v>
+      </c>
+      <c r="AGP5">
+        <v>36.162999999999997</v>
+      </c>
+      <c r="AGQ5">
+        <v>39.448</v>
+      </c>
+      <c r="AGR5">
+        <v>39.570999999999998</v>
+      </c>
+      <c r="AGS5">
+        <v>34.826000000000001</v>
+      </c>
+      <c r="AGT5">
+        <v>39.875999999999998</v>
+      </c>
+      <c r="AGU5">
+        <v>40.484000000000002</v>
+      </c>
+      <c r="AGV5">
+        <v>35.353999999999999</v>
+      </c>
+      <c r="AGW5">
+        <v>41.253999999999998</v>
+      </c>
+      <c r="AGX5">
+        <v>38.195</v>
+      </c>
+      <c r="AGY5">
+        <v>34.353000000000002</v>
+      </c>
+      <c r="AGZ5">
+        <v>36.195</v>
+      </c>
+      <c r="AHA5">
+        <v>36.606999999999999</v>
+      </c>
+      <c r="AHB5">
+        <v>37.764000000000003</v>
+      </c>
+      <c r="AHC5">
+        <v>35.441000000000003</v>
+      </c>
+      <c r="AHD5">
+        <v>38.451000000000001</v>
+      </c>
+      <c r="AHE5">
+        <v>34.286999999999999</v>
+      </c>
+      <c r="AHF5">
+        <v>29.367999999999999</v>
+      </c>
+      <c r="AHG5">
+        <v>36.015000000000001</v>
+      </c>
+      <c r="AHH5">
+        <v>37.517000000000003</v>
+      </c>
+      <c r="AHI5">
+        <v>37.76</v>
+      </c>
+      <c r="AHJ5">
+        <v>35.783999999999999</v>
+      </c>
+      <c r="AHK5">
+        <v>35.368000000000002</v>
+      </c>
+      <c r="AHL5">
+        <v>34.904000000000003</v>
+      </c>
+      <c r="AHM5">
+        <v>36.363</v>
+      </c>
+      <c r="AHN5">
+        <v>35.468000000000004</v>
+      </c>
+      <c r="AHO5">
+        <v>32.122</v>
+      </c>
+      <c r="AHP5">
+        <v>30.605</v>
+      </c>
+      <c r="AHQ5">
+        <v>35.404000000000003</v>
+      </c>
+      <c r="AHR5">
+        <v>34.576000000000001</v>
+      </c>
+      <c r="AHS5">
+        <v>36.527000000000001</v>
+      </c>
+      <c r="AHT5">
+        <v>36.012999999999998</v>
+      </c>
+      <c r="AHU5">
+        <v>38.295000000000002</v>
+      </c>
+      <c r="AHV5">
+        <v>36.088000000000001</v>
+      </c>
+      <c r="AHW5">
+        <v>31.949000000000002</v>
+      </c>
+      <c r="AHX5">
+        <v>35.393000000000001</v>
+      </c>
+      <c r="AHY5">
+        <v>30.879000000000001</v>
+      </c>
+      <c r="AHZ5">
+        <v>31.734999999999999</v>
+      </c>
+      <c r="AIA5">
+        <v>32.862000000000002</v>
+      </c>
+      <c r="AIB5">
+        <v>35.222999999999999</v>
+      </c>
+      <c r="AIC5">
+        <v>34.420999999999999</v>
+      </c>
+      <c r="AID5">
+        <v>38.366</v>
+      </c>
+      <c r="AIE5">
+        <v>35.988999999999997</v>
+      </c>
+      <c r="AIF5">
+        <v>33.838000000000001</v>
+      </c>
+      <c r="AIG5">
+        <v>34.045000000000002</v>
+      </c>
+      <c r="AIH5">
+        <v>35.466999999999999</v>
+      </c>
+      <c r="AII5">
+        <v>33.28</v>
+      </c>
+      <c r="AIJ5">
+        <v>34.44</v>
+      </c>
+      <c r="AIK5">
+        <v>35.619</v>
+      </c>
+      <c r="AIL5">
+        <v>32.348999999999997</v>
+      </c>
+      <c r="AIM5">
+        <v>37.052</v>
+      </c>
+      <c r="AIN5">
+        <v>40.348999999999997</v>
+      </c>
+      <c r="AIO5">
+        <v>33.094999999999999</v>
+      </c>
+      <c r="AIP5">
+        <v>35.523000000000003</v>
+      </c>
+      <c r="AIQ5">
+        <v>33.808999999999997</v>
+      </c>
+      <c r="AIR5">
+        <v>34.119</v>
+      </c>
+      <c r="AIS5">
+        <v>36.761000000000003</v>
+      </c>
+      <c r="AIT5">
+        <v>32.886000000000003</v>
+      </c>
+      <c r="AIU5">
+        <v>34.965000000000003</v>
+      </c>
+      <c r="AIV5">
+        <v>38.344999999999999</v>
+      </c>
+      <c r="AIW5">
+        <v>36.912999999999997</v>
+      </c>
+      <c r="AIX5">
+        <v>36.201999999999998</v>
+      </c>
+      <c r="AIY5">
+        <v>37.043999999999997</v>
+      </c>
+      <c r="AIZ5">
+        <v>35.021999999999998</v>
+      </c>
+      <c r="AJA5">
+        <v>33.500999999999998</v>
+      </c>
+      <c r="AJB5">
+        <v>37.829000000000001</v>
+      </c>
+      <c r="AJC5">
+        <v>37.445</v>
+      </c>
+      <c r="AJD5">
+        <v>37.137999999999998</v>
+      </c>
+      <c r="AJE5">
+        <v>38.311</v>
+      </c>
+      <c r="AJF5">
+        <v>33.987000000000002</v>
+      </c>
+      <c r="AJG5">
+        <v>34.287999999999997</v>
+      </c>
+      <c r="AJH5">
+        <v>37.747999999999998</v>
+      </c>
+      <c r="AJI5">
+        <v>36.152999999999999</v>
+      </c>
+      <c r="AJJ5">
+        <v>37.756999999999998</v>
+      </c>
+      <c r="AJK5">
+        <v>33.56</v>
+      </c>
+      <c r="AJL5">
+        <v>36.045999999999999</v>
+      </c>
+      <c r="AJM5">
+        <v>32.935000000000002</v>
+      </c>
+      <c r="AJN5">
+        <v>38.44</v>
+      </c>
+      <c r="AJO5">
+        <v>35.752000000000002</v>
+      </c>
+      <c r="AJP5">
+        <v>35.875</v>
+      </c>
+      <c r="AJQ5">
+        <v>39.643000000000001</v>
+      </c>
+      <c r="AJR5">
+        <v>35.58</v>
+      </c>
+      <c r="AJS5">
+        <v>36.667000000000002</v>
+      </c>
+      <c r="AJT5">
+        <v>35.817</v>
+      </c>
+      <c r="AJU5">
+        <v>34.674999999999997</v>
+      </c>
+      <c r="AJV5">
+        <v>36.988</v>
+      </c>
+      <c r="AJW5">
+        <v>35.988</v>
+      </c>
+      <c r="AJX5">
+        <v>34.384</v>
+      </c>
+      <c r="AJY5">
+        <v>35.576000000000001</v>
+      </c>
+      <c r="AJZ5">
+        <v>34.021999999999998</v>
+      </c>
+      <c r="AKA5">
+        <v>33.215000000000003</v>
+      </c>
+      <c r="AKB5">
+        <v>38.372</v>
+      </c>
+      <c r="AKC5">
+        <v>35.384999999999998</v>
+      </c>
+      <c r="AKD5">
+        <v>38.58</v>
+      </c>
+      <c r="AKE5">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="AKF5">
+        <v>34.558999999999997</v>
+      </c>
+      <c r="AKG5">
+        <v>34.988999999999997</v>
+      </c>
+      <c r="AKH5">
+        <v>34.192999999999998</v>
+      </c>
+      <c r="AKI5">
+        <v>32.35</v>
+      </c>
+      <c r="AKJ5">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="AKK5">
+        <v>37.162999999999997</v>
+      </c>
+      <c r="AKL5">
+        <v>34.029000000000003</v>
+      </c>
+      <c r="AKM5">
+        <v>35.058999999999997</v>
+      </c>
+      <c r="AKN5">
+        <v>36.307000000000002</v>
+      </c>
+      <c r="AKO5">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="AKP5">
+        <v>35.853000000000002</v>
+      </c>
+      <c r="AKQ5">
+        <v>33.350999999999999</v>
+      </c>
+      <c r="AKR5">
+        <v>36.154000000000003</v>
+      </c>
+      <c r="AKS5">
+        <v>41.646000000000001</v>
+      </c>
+      <c r="AKT5">
+        <v>36.055</v>
+      </c>
+      <c r="AKU5">
+        <v>39.854999999999997</v>
+      </c>
+      <c r="AKV5">
+        <v>38.322000000000003</v>
+      </c>
+      <c r="AKW5">
+        <v>42.773000000000003</v>
+      </c>
+      <c r="AKX5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AKY5">
+        <v>37.723999999999997</v>
+      </c>
+      <c r="AKZ5">
+        <v>39.067</v>
+      </c>
+      <c r="ALA5">
+        <v>39.003999999999998</v>
+      </c>
+      <c r="ALB5">
+        <v>36.567999999999998</v>
+      </c>
+      <c r="ALC5">
+        <v>39.652999999999999</v>
+      </c>
+      <c r="ALD5">
+        <v>32.195</v>
+      </c>
+      <c r="ALE5">
+        <v>37.143999999999998</v>
+      </c>
+      <c r="ALF5">
+        <v>36.286000000000001</v>
+      </c>
+      <c r="ALG5">
+        <v>34.627000000000002</v>
+      </c>
+      <c r="ALH5">
+        <v>38.932000000000002</v>
+      </c>
+      <c r="ALI5">
+        <v>41.228000000000002</v>
+      </c>
+      <c r="ALJ5">
+        <v>35.259</v>
+      </c>
+      <c r="ALK5">
+        <v>34.305999999999997</v>
+      </c>
+      <c r="ALL5">
+        <v>37.459000000000003</v>
+      </c>
+      <c r="ALM5">
+        <v>37.741999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:1001" x14ac:dyDescent="0.25">
